--- a/mytry/Smart_Env.xlsx
+++ b/mytry/Smart_Env.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\myStudy\software_project\team_work_final\Marine-Ranching-Intelligence-System-main\mytry\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B3DEAF-CBA7-4E4C-B222-5ADE6344FD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -54,19 +56,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -74,19 +75,355 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -109,29 +446,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -180,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -215,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -389,520 +1011,523 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.2222222222222"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.4" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
         <v>45438</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2">
+        <v>16.4</v>
+      </c>
+      <c r="D2">
         <v>7.36</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>9.65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
         <v>45439</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>16.8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>7.35</v>
       </c>
-      <c r="E3" s="1">
-        <v>9.0299999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
+      <c r="E3">
+        <v>9.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
         <v>45440</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>16.8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>7.35</v>
       </c>
-      <c r="E4" s="1">
-        <v>9.0299999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
+      <c r="E4">
+        <v>9.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
         <v>45441</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5">
+        <v>16.9</v>
+      </c>
+      <c r="D5">
         <v>7.31</v>
       </c>
-      <c r="E5" s="1">
-        <v>8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
+      <c r="E5">
+        <v>8.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
         <v>45442</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>7.27</v>
       </c>
-      <c r="E6" s="1">
-        <v>8.1199999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
+      <c r="E6">
+        <v>8.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
         <v>45443</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>17</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>7.28</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>7.95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
         <v>45444</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>17</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>7.26</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>8.17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
         <v>45445</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>16.7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>7.26</v>
       </c>
-      <c r="E9" s="1">
-        <v>8.5299999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
+      <c r="E9">
+        <v>8.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
         <v>45446</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10">
+        <v>16.6</v>
+      </c>
+      <c r="D10">
         <v>7.26</v>
       </c>
-      <c r="E10" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
+      <c r="E10">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
         <v>45447</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>16.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>7.28</v>
       </c>
-      <c r="E11" s="1">
-        <v>9.5299999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
+      <c r="E11">
+        <v>9.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
         <v>45448</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>16.2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>7.25</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>9.09</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
         <v>45449</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>16</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>7.25</v>
       </c>
-      <c r="E13" s="1">
-        <v>9.4499999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
+      <c r="E13">
+        <v>9.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
         <v>45450</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
         <v>15.8</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>7.26</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>9.23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
         <v>45451</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>15.6</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>7.25</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>9.44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
         <v>45452</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>15.5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>7.25</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>9.59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
         <v>45453</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>15.5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>7.27</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>9.89</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
         <v>45454</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>15.4</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>7.24</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>9.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45455</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
         <v>15.3</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>7.27</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>9.49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
         <v>45456</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
         <v>15.1</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>7.26</v>
       </c>
-      <c r="E20" s="1">
-        <v>9.5299999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
+      <c r="E20">
+        <v>9.53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
         <v>45457</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>15.1</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>7.26</v>
       </c>
-      <c r="E21" s="1">
-        <v>9.5299999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
+      <c r="E21">
+        <v>9.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
         <v>45458</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
         <v>15.5</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>7.28</v>
       </c>
-      <c r="E22" s="1">
-        <v>9.7899999999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
+      <c r="E22">
+        <v>9.79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
         <v>45459</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>16.4</v>
+      </c>
+      <c r="D23">
         <v>7.3</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>9.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
         <v>45460</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>15.9</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>7.27</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>9.23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
         <v>45461</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
         <v>15.9</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>7.27</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>9.23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
         <v>45462</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
         <v>15.2</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>7.25</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>9.34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
         <v>45463</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
         <v>15.1</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>7.24</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>9.48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="3">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
         <v>45464</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>15.3</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>7.24</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>9.19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="3">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
         <v>45465</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
         <v>15.7</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>7.25</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>8.89</v>
       </c>
     </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
+        <v>45472</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mytry/Smart_Env.xlsx
+++ b/mytry/Smart_Env.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
   <si>
     <t>监测时间</t>
   </si>
@@ -52,6 +52,9 @@
   <si>
     <t>Ⅳ</t>
   </si>
+  <si>
+    <t>V</t>
+  </si>
 </sst>
 </file>
 
@@ -63,7 +66,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +79,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -547,148 +543,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,7 +1016,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1521,9 +1517,12 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>45472</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
